--- a/source/Sylvan.Data.Excel.Tests/Data/Blank2ndSheet.xlsx
+++ b/source/Sylvan.Data.Excel.Tests/Data/Blank2ndSheet.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Products\Kingfisher\Dev\Main Line\OpenSource\Sylvan.Data.Excel\source\Sylvan.Data.Excel.Tests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\source\Sylvan.Data.Excel\source\Sylvan.Data.Excel.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9936BD-A54E-4215-B7DD-67255A35D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9238EB-EBAE-41C5-92BF-06626A081F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Values" sheetId="1" r:id="rId1"/>
-    <sheet name="Blank" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blank" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -34,37 +28,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Value</t>
+    <t>Values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,34 +61,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 7 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,44 +94,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,31 +159,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -251,23 +194,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,219 +205,176 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C660C1-59E4-49F8-9799-162FAB9B04DA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
